--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Atrn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Atrn.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.53245233333333</v>
+        <v>10.45366133333333</v>
       </c>
       <c r="N2">
-        <v>31.597357</v>
+        <v>31.360984</v>
       </c>
       <c r="O2">
-        <v>0.251043576523565</v>
+        <v>0.2775334303572506</v>
       </c>
       <c r="P2">
-        <v>0.2510435765235649</v>
+        <v>0.2775334303572506</v>
       </c>
       <c r="Q2">
-        <v>1.220556749465778</v>
+        <v>1.211426028167111</v>
       </c>
       <c r="R2">
-        <v>10.985010745192</v>
+        <v>10.902834253504</v>
       </c>
       <c r="S2">
-        <v>0.251043576523565</v>
+        <v>0.2775334303572506</v>
       </c>
       <c r="T2">
-        <v>0.2510435765235649</v>
+        <v>0.2775334303572506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>33.811803</v>
       </c>
       <c r="O3">
-        <v>0.2686375304690896</v>
+        <v>0.2992222971432776</v>
       </c>
       <c r="P3">
-        <v>0.2686375304690896</v>
+        <v>0.2992222971432776</v>
       </c>
       <c r="Q3">
         <v>1.306097353752</v>
@@ -638,10 +638,10 @@
         <v>11.754876183768</v>
       </c>
       <c r="S3">
-        <v>0.2686375304690896</v>
+        <v>0.2992222971432776</v>
       </c>
       <c r="T3">
-        <v>0.2686375304690896</v>
+        <v>0.2992222971432776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.914952666666666</v>
+        <v>6.998235333333334</v>
       </c>
       <c r="N4">
-        <v>26.744858</v>
+        <v>20.994706</v>
       </c>
       <c r="O4">
-        <v>0.212490076493894</v>
+        <v>0.1857955979800236</v>
       </c>
       <c r="P4">
-        <v>0.212490076493894</v>
+        <v>0.1857955979800235</v>
       </c>
       <c r="Q4">
-        <v>1.033112261427556</v>
+        <v>0.8109928343484445</v>
       </c>
       <c r="R4">
-        <v>9.298010352848001</v>
+        <v>7.298935509136001</v>
       </c>
       <c r="S4">
-        <v>0.212490076493894</v>
+        <v>0.1857955979800236</v>
       </c>
       <c r="T4">
-        <v>0.212490076493894</v>
+        <v>0.1857955979800235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.713194333333333</v>
+        <v>3.843654</v>
       </c>
       <c r="N5">
-        <v>11.139583</v>
+        <v>11.530962</v>
       </c>
       <c r="O5">
-        <v>0.08850489480183749</v>
+        <v>0.1020448669333559</v>
       </c>
       <c r="P5">
-        <v>0.08850489480183747</v>
+        <v>0.1020448669333559</v>
       </c>
       <c r="Q5">
-        <v>0.4303047630497778</v>
+        <v>0.4454231250080001</v>
       </c>
       <c r="R5">
-        <v>3.872742867448</v>
+        <v>4.008808125072</v>
       </c>
       <c r="S5">
-        <v>0.08850489480183749</v>
+        <v>0.1020448669333559</v>
       </c>
       <c r="T5">
-        <v>0.08850489480183747</v>
+        <v>0.1020448669333559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.523477333333333</v>
+        <v>5.100162333333333</v>
       </c>
       <c r="N6">
-        <v>22.570432</v>
+        <v>15.300487</v>
       </c>
       <c r="O6">
-        <v>0.179323921711614</v>
+        <v>0.1354038075860923</v>
       </c>
       <c r="P6">
-        <v>0.179323921711614</v>
+        <v>0.1354038075860922</v>
       </c>
       <c r="Q6">
-        <v>0.8718606785991111</v>
+        <v>0.5910340120524445</v>
       </c>
       <c r="R6">
-        <v>7.846746107392001</v>
+        <v>5.319306108472</v>
       </c>
       <c r="S6">
-        <v>0.179323921711614</v>
+        <v>0.1354038075860923</v>
       </c>
       <c r="T6">
-        <v>0.179323921711614</v>
+        <v>0.1354038075860922</v>
       </c>
     </row>
   </sheetData>
